--- a/data/pepas1.xlsx
+++ b/data/pepas1.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:AS2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/pepas1.xlsx
+++ b/data/pepas1.xlsx
@@ -475,8 +475,8 @@
   </sheetPr>
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK3" activeCellId="1" sqref="AK2 AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
